--- a/uploads/Filtered_BPP_CHILDSTUDY_SEM_2025.xlsx
+++ b/uploads/Filtered_BPP_CHILDSTUDY_SEM_2025.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\MEmu Download\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C43E98-FC8B-4189-944A-B8F52305F8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="225">
   <si>
     <t>Student Teacher</t>
   </si>
@@ -359,9 +365,6 @@
     <t>24/U/PPD/12334/PD</t>
   </si>
   <si>
-    <t>Semester 1 Year 2025</t>
-  </si>
-  <si>
     <t>Student Name</t>
   </si>
   <si>
@@ -375,13 +378,331 @@
   </si>
   <si>
     <t>Semester_1 Year 2025</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>S3 East</t>
+  </si>
+  <si>
+    <t>Topc 1</t>
+  </si>
+  <si>
+    <t>Topc 2</t>
+  </si>
+  <si>
+    <t>Topc 3</t>
+  </si>
+  <si>
+    <t>Topc 4</t>
+  </si>
+  <si>
+    <t>Topc 5</t>
+  </si>
+  <si>
+    <t>Topc 6</t>
+  </si>
+  <si>
+    <t>Topc 7</t>
+  </si>
+  <si>
+    <t>Topc 8</t>
+  </si>
+  <si>
+    <t>Topic 2</t>
+  </si>
+  <si>
+    <t>Topc 9</t>
+  </si>
+  <si>
+    <t>Topc 10</t>
+  </si>
+  <si>
+    <t>Topc 11</t>
+  </si>
+  <si>
+    <t>Topc 12</t>
+  </si>
+  <si>
+    <t>Topc 13</t>
+  </si>
+  <si>
+    <t>Topc 14</t>
+  </si>
+  <si>
+    <t>Topc 15</t>
+  </si>
+  <si>
+    <t>Topc 16</t>
+  </si>
+  <si>
+    <t>Topc 17</t>
+  </si>
+  <si>
+    <t>Topc 18</t>
+  </si>
+  <si>
+    <t>Topc 19</t>
+  </si>
+  <si>
+    <t>Topc 20</t>
+  </si>
+  <si>
+    <t>Topc 21</t>
+  </si>
+  <si>
+    <t>Topc 22</t>
+  </si>
+  <si>
+    <t>Topc 23</t>
+  </si>
+  <si>
+    <t>Topc 24</t>
+  </si>
+  <si>
+    <t>Topc 25</t>
+  </si>
+  <si>
+    <t>Topc 26</t>
+  </si>
+  <si>
+    <t>Topc 27</t>
+  </si>
+  <si>
+    <t>Topc 28</t>
+  </si>
+  <si>
+    <t>Topc 29</t>
+  </si>
+  <si>
+    <t>Topc 30</t>
+  </si>
+  <si>
+    <t>Topc 31</t>
+  </si>
+  <si>
+    <t>Topc 32</t>
+  </si>
+  <si>
+    <t>Topc 33</t>
+  </si>
+  <si>
+    <t>Topc 34</t>
+  </si>
+  <si>
+    <t>Topc 35</t>
+  </si>
+  <si>
+    <t>Topc 36</t>
+  </si>
+  <si>
+    <t>Topc 37</t>
+  </si>
+  <si>
+    <t>Topc 38</t>
+  </si>
+  <si>
+    <t>Topc 39</t>
+  </si>
+  <si>
+    <t>Topc 40</t>
+  </si>
+  <si>
+    <t>Topc 41</t>
+  </si>
+  <si>
+    <t>Topc 42</t>
+  </si>
+  <si>
+    <t>Topc 43</t>
+  </si>
+  <si>
+    <t>Topc 44</t>
+  </si>
+  <si>
+    <t>Topc 45</t>
+  </si>
+  <si>
+    <t>Topc 46</t>
+  </si>
+  <si>
+    <t>Topc 47</t>
+  </si>
+  <si>
+    <t>Topc 48</t>
+  </si>
+  <si>
+    <t>Topc 49</t>
+  </si>
+  <si>
+    <t>Topc 50</t>
+  </si>
+  <si>
+    <t>Topc 51</t>
+  </si>
+  <si>
+    <t>Topc 52</t>
+  </si>
+  <si>
+    <t>Topic 3</t>
+  </si>
+  <si>
+    <t>Topic 4</t>
+  </si>
+  <si>
+    <t>Topic 5</t>
+  </si>
+  <si>
+    <t>Topic 6</t>
+  </si>
+  <si>
+    <t>Topic 7</t>
+  </si>
+  <si>
+    <t>Topic 8</t>
+  </si>
+  <si>
+    <t>Topic 9</t>
+  </si>
+  <si>
+    <t>Topic 10</t>
+  </si>
+  <si>
+    <t>Topic 11</t>
+  </si>
+  <si>
+    <t>Topic 12</t>
+  </si>
+  <si>
+    <t>Topic 13</t>
+  </si>
+  <si>
+    <t>Topic 14</t>
+  </si>
+  <si>
+    <t>Topic 15</t>
+  </si>
+  <si>
+    <t>Topic 16</t>
+  </si>
+  <si>
+    <t>Topic 17</t>
+  </si>
+  <si>
+    <t>Topic 18</t>
+  </si>
+  <si>
+    <t>Topic 19</t>
+  </si>
+  <si>
+    <t>Topic 20</t>
+  </si>
+  <si>
+    <t>Topic 21</t>
+  </si>
+  <si>
+    <t>Topic 22</t>
+  </si>
+  <si>
+    <t>Topic 23</t>
+  </si>
+  <si>
+    <t>Topic 24</t>
+  </si>
+  <si>
+    <t>Topic 25</t>
+  </si>
+  <si>
+    <t>Topic 26</t>
+  </si>
+  <si>
+    <t>Topic 27</t>
+  </si>
+  <si>
+    <t>Topic 28</t>
+  </si>
+  <si>
+    <t>Topic 29</t>
+  </si>
+  <si>
+    <t>Topic 30</t>
+  </si>
+  <si>
+    <t>Topic 31</t>
+  </si>
+  <si>
+    <t>Topic 32</t>
+  </si>
+  <si>
+    <t>Topic 33</t>
+  </si>
+  <si>
+    <t>Topic 34</t>
+  </si>
+  <si>
+    <t>Topic 35</t>
+  </si>
+  <si>
+    <t>Topic 36</t>
+  </si>
+  <si>
+    <t>Topic 37</t>
+  </si>
+  <si>
+    <t>Topic 38</t>
+  </si>
+  <si>
+    <t>Topic 39</t>
+  </si>
+  <si>
+    <t>Topic 40</t>
+  </si>
+  <si>
+    <t>Topic 41</t>
+  </si>
+  <si>
+    <t>Topic 42</t>
+  </si>
+  <si>
+    <t>Topic 43</t>
+  </si>
+  <si>
+    <t>Topic 44</t>
+  </si>
+  <si>
+    <t>Topic 45</t>
+  </si>
+  <si>
+    <t>Topic 46</t>
+  </si>
+  <si>
+    <t>Topic 47</t>
+  </si>
+  <si>
+    <t>Topic 48</t>
+  </si>
+  <si>
+    <t>Topic 49</t>
+  </si>
+  <si>
+    <t>Topic 50</t>
+  </si>
+  <si>
+    <t>Topic 51</t>
+  </si>
+  <si>
+    <t>Topic 52</t>
+  </si>
+  <si>
+    <t>Topic 53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +714,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,24 +760,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -488,7 +824,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -522,6 +858,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -556,9 +893,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -731,14 +1069,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +1115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -778,10 +1126,25 @@
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45700.793749999997</v>
+      </c>
+      <c r="H2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -792,10 +1155,25 @@
         <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45700.793749999997</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -806,10 +1184,25 @@
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45701.793749942131</v>
+      </c>
+      <c r="H4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -820,10 +1213,25 @@
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45702.793749942131</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -834,10 +1242,25 @@
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45703.793749942131</v>
+      </c>
+      <c r="H6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -848,10 +1271,25 @@
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45704.793749942131</v>
+      </c>
+      <c r="H7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -862,10 +1300,25 @@
         <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45705.793749942131</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -876,10 +1329,25 @@
         <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45706.793749942131</v>
+      </c>
+      <c r="H9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -890,10 +1358,25 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45707.793749942131</v>
+      </c>
+      <c r="H10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -904,10 +1387,25 @@
         <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45708.793749942131</v>
+      </c>
+      <c r="H11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -918,10 +1416,25 @@
         <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45709.793749942131</v>
+      </c>
+      <c r="H12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -932,10 +1445,25 @@
         <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45710.793749942131</v>
+      </c>
+      <c r="H13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -946,10 +1474,25 @@
         <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45711.793749942131</v>
+      </c>
+      <c r="H14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -960,10 +1503,25 @@
         <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45712.793749942131</v>
+      </c>
+      <c r="H15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -974,10 +1532,25 @@
         <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45713.793749942131</v>
+      </c>
+      <c r="H16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -988,10 +1561,25 @@
         <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45714.793749942131</v>
+      </c>
+      <c r="H17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1002,10 +1590,25 @@
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45715.793749942131</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1016,10 +1619,25 @@
         <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45716.793749942131</v>
+      </c>
+      <c r="H19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1030,10 +1648,25 @@
         <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45717.793749942131</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1044,10 +1677,25 @@
         <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45718.793749942131</v>
+      </c>
+      <c r="H21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1058,10 +1706,25 @@
         <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="2">
+        <v>45719.793749942131</v>
+      </c>
+      <c r="H22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1072,10 +1735,25 @@
         <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="2">
+        <v>45720.793749942131</v>
+      </c>
+      <c r="H23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1086,10 +1764,25 @@
         <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="2">
+        <v>45721.793749942131</v>
+      </c>
+      <c r="H24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1100,10 +1793,25 @@
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45722.793749942131</v>
+      </c>
+      <c r="H25" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1114,10 +1822,25 @@
         <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45723.793749942131</v>
+      </c>
+      <c r="H26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1128,10 +1851,25 @@
         <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45724.793749942131</v>
+      </c>
+      <c r="H27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1142,10 +1880,25 @@
         <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="2">
+        <v>45725.793749942131</v>
+      </c>
+      <c r="H28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1156,10 +1909,25 @@
         <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45726.793749942131</v>
+      </c>
+      <c r="H29" t="s">
+        <v>149</v>
+      </c>
+      <c r="I29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1170,10 +1938,25 @@
         <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="2">
+        <v>45727.793749942131</v>
+      </c>
+      <c r="H30" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1184,10 +1967,25 @@
         <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45728.793749942131</v>
+      </c>
+      <c r="H31" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1198,10 +1996,25 @@
         <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="2">
+        <v>45729.793749942131</v>
+      </c>
+      <c r="H32" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1212,10 +2025,25 @@
         <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45730.793749942131</v>
+      </c>
+      <c r="H33" t="s">
+        <v>153</v>
+      </c>
+      <c r="I33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1226,10 +2054,25 @@
         <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45731.793749942131</v>
+      </c>
+      <c r="H34" t="s">
+        <v>154</v>
+      </c>
+      <c r="I34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1240,10 +2083,25 @@
         <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="2">
+        <v>45732.793749942131</v>
+      </c>
+      <c r="H35" t="s">
+        <v>155</v>
+      </c>
+      <c r="I35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1254,10 +2112,25 @@
         <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="2">
+        <v>45733.793749942131</v>
+      </c>
+      <c r="H36" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1268,10 +2141,25 @@
         <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="2">
+        <v>45734.793749942131</v>
+      </c>
+      <c r="H37" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1282,10 +2170,25 @@
         <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="2">
+        <v>45735.793749942131</v>
+      </c>
+      <c r="H38" t="s">
+        <v>158</v>
+      </c>
+      <c r="I38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1296,10 +2199,25 @@
         <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45736.793749942131</v>
+      </c>
+      <c r="H39" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1310,10 +2228,25 @@
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45737.793749942131</v>
+      </c>
+      <c r="H40" t="s">
+        <v>160</v>
+      </c>
+      <c r="I40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1324,10 +2257,25 @@
         <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45738.793749942131</v>
+      </c>
+      <c r="H41" t="s">
+        <v>161</v>
+      </c>
+      <c r="I41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1338,10 +2286,25 @@
         <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E42" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="2">
+        <v>45739.793749942131</v>
+      </c>
+      <c r="H42" t="s">
+        <v>162</v>
+      </c>
+      <c r="I42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1352,10 +2315,25 @@
         <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E43" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="2">
+        <v>45740.793749942131</v>
+      </c>
+      <c r="H43" t="s">
+        <v>163</v>
+      </c>
+      <c r="I43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1366,10 +2344,25 @@
         <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" s="2">
+        <v>45741.793749942131</v>
+      </c>
+      <c r="H44" t="s">
+        <v>164</v>
+      </c>
+      <c r="I44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -1380,10 +2373,25 @@
         <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" s="2">
+        <v>45742.793749942131</v>
+      </c>
+      <c r="H45" t="s">
+        <v>165</v>
+      </c>
+      <c r="I45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1394,10 +2402,25 @@
         <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" s="2">
+        <v>45743.793749942131</v>
+      </c>
+      <c r="H46" t="s">
+        <v>166</v>
+      </c>
+      <c r="I46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1408,10 +2431,25 @@
         <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E47" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="2">
+        <v>45744.793749942131</v>
+      </c>
+      <c r="H47" t="s">
+        <v>167</v>
+      </c>
+      <c r="I47" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1422,10 +2460,25 @@
         <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="2">
+        <v>45745.793749942131</v>
+      </c>
+      <c r="H48" t="s">
+        <v>168</v>
+      </c>
+      <c r="I48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1436,10 +2489,25 @@
         <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="2">
+        <v>45746.793749942131</v>
+      </c>
+      <c r="H49" t="s">
+        <v>169</v>
+      </c>
+      <c r="I49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -1450,10 +2518,25 @@
         <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" t="s">
+        <v>120</v>
+      </c>
+      <c r="G50" s="2">
+        <v>45747.793749942131</v>
+      </c>
+      <c r="H50" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -1464,10 +2547,25 @@
         <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" s="2">
+        <v>45748.793749942131</v>
+      </c>
+      <c r="H51" t="s">
+        <v>171</v>
+      </c>
+      <c r="I51" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -1478,10 +2576,25 @@
         <v>112</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" s="2">
+        <v>45749.793749942131</v>
+      </c>
+      <c r="H52" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -1492,25 +2605,41 @@
         <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="E53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" s="2">
+        <v>45750.793749942131</v>
+      </c>
+      <c r="H53" t="s">
+        <v>173</v>
+      </c>
+      <c r="I53" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1537,9 +2666,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -1548,21 +2677,21 @@
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1573,10 +2702,10 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1584,10 +2713,10 @@
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1598,10 +2727,10 @@
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1609,10 +2738,10 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1623,10 +2752,10 @@
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1634,10 +2763,10 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1648,10 +2777,10 @@
         <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1659,10 +2788,10 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1673,10 +2802,10 @@
         <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1684,10 +2813,10 @@
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1698,10 +2827,10 @@
         <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1709,10 +2838,10 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1723,10 +2852,10 @@
         <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1734,12 +2863,12 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -1748,21 +2877,21 @@
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1773,7 +2902,7 @@
         <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
